--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_30.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_23_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2257755.845468774</v>
+        <v>2255211.252774489</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283192</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9494965.654370341</v>
+        <v>9494965.654370343</v>
       </c>
     </row>
     <row r="11">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>187.5255871663197</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>68.45099403238612</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199748</v>
+        <v>96.86671316392805</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900532</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T2" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -741,13 +741,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -786,19 +786,19 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>111.0567566117626</v>
+        <v>36.3946960015974</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>52.21594625443403</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>116.9387179902932</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>12.25188473404938</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760054</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425929</v>
+        <v>23.94240680425915</v>
       </c>
       <c r="S5" t="n">
-        <v>38.5967834543392</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -975,7 +975,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -984,7 +984,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074799</v>
       </c>
       <c r="S6" t="n">
-        <v>64.98286754310112</v>
+        <v>141.3629830843606</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>3.481777442251389</v>
       </c>
     </row>
     <row r="7">
@@ -1105,16 +1105,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>45.38538499976028</v>
+        <v>222.0983299894507</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>109.8100533469014</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>259.5984674837639</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>4.023709124811252</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1212,22 +1212,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>55.31717029709988</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>20.27697994470635</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1294,16 +1294,16 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>31.68046530976811</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>250.7831302631783</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1427,7 +1427,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>79.05856366754516</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>19.91555826189057</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,13 +1850,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>59.45282559760403</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>183.6118834172014</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766861</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>59.96838802184504</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2482,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>48.47457675531671</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>41.33703994142957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2792,7 +2792,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>108.0275736005862</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>45.66054613217651</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3193,13 +3193,13 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>14.92158678358024</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3424,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>130.1208074460232</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3433,10 +3433,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3503,7 +3503,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710067</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -3664,10 +3664,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>6.600826611594925</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3806,7 +3806,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656052</v>
       </c>
     </row>
     <row r="42">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3961,10 +3961,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>152.0575603057045</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>83.53432244436931</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>74.53917159609126</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="D2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="E2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="F2" t="n">
-        <v>210.8831693494277</v>
+        <v>315.4971313776551</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348963</v>
+        <v>302.2669968018389</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348963</v>
+        <v>112.8472117853541</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L2" t="n">
-        <v>191.874309407919</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644759</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O2" t="n">
-        <v>649.484525998558</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P2" t="n">
-        <v>734.461172602026</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652789</v>
+        <v>672.2420264262253</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823969</v>
+        <v>511.8624171433434</v>
       </c>
       <c r="T2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="U2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="V2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="W2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="X2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659123</v>
+        <v>322.4426321268586</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C3" t="n">
-        <v>469.7084696131274</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D3" t="n">
-        <v>320.7740599518761</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024196</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772646</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M3" t="n">
-        <v>338.769091114024</v>
+        <v>338.7690911140243</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546594</v>
+        <v>512.50005875466</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476343</v>
+        <v>649.2101578476347</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017056</v>
+        <v>739.5989987017061</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652789</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S3" t="n">
-        <v>750.1023486652789</v>
+        <v>598.8192732198759</v>
       </c>
       <c r="T3" t="n">
-        <v>750.1023486652789</v>
+        <v>409.3994882033911</v>
       </c>
       <c r="U3" t="n">
-        <v>750.1023486652789</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="V3" t="n">
-        <v>750.1023486652789</v>
+        <v>219.9797031869064</v>
       </c>
       <c r="W3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="X3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
       <c r="Y3" t="n">
-        <v>637.9238066331955</v>
+        <v>183.2173839933736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230163</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170695</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396302</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828946</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828946</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="5">
@@ -4541,40 +4541,40 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1664.731916586771</v>
+        <v>841.6085069816168</v>
       </c>
       <c r="C5" t="n">
-        <v>1295.76939964636</v>
+        <v>841.6085069816168</v>
       </c>
       <c r="D5" t="n">
-        <v>937.5037010396093</v>
+        <v>483.3428083748663</v>
       </c>
       <c r="E5" t="n">
-        <v>551.7154484413651</v>
+        <v>365.2228912129539</v>
       </c>
       <c r="F5" t="n">
-        <v>140.7295436517576</v>
+        <v>358.2773904637505</v>
       </c>
       <c r="G5" t="n">
-        <v>128.3539025062531</v>
+        <v>345.9017493182461</v>
       </c>
       <c r="H5" t="n">
-        <v>128.3539025062531</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017216</v>
+        <v>111.6705539017217</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746978</v>
+        <v>277.9807166746975</v>
       </c>
       <c r="L5" t="n">
-        <v>521.204941603076</v>
+        <v>521.2049416030759</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709171</v>
+        <v>823.5081935709175</v>
       </c>
       <c r="N5" t="n">
         <v>1135.316836582751</v>
@@ -4583,34 +4583,34 @@
         <v>1416.413635079238</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332755</v>
+        <v>1621.822248332757</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837881</v>
+        <v>1727.902815837883</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540649</v>
+        <v>1703.718566540651</v>
       </c>
       <c r="S5" t="n">
-        <v>1664.731916586771</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="T5" t="n">
-        <v>1664.731916586771</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="U5" t="n">
-        <v>1664.731916586771</v>
+        <v>1562.810726300999</v>
       </c>
       <c r="V5" t="n">
-        <v>1664.731916586771</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="W5" t="n">
-        <v>1664.731916586771</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="X5" t="n">
-        <v>1664.731916586771</v>
+        <v>1231.747838957428</v>
       </c>
       <c r="Y5" t="n">
-        <v>1664.731916586771</v>
+        <v>841.6085069816168</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>514.7830985764551</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="C6" t="n">
-        <v>340.3300692953281</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953281</v>
+        <v>193.7955113222131</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898726</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787512</v>
+        <v>61.66788464787527</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806059</v>
+        <v>186.1577239806062</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189971</v>
+        <v>399.8722171189977</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522349</v>
+        <v>668.6238185223499</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352464</v>
+        <v>958.8971200352478</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228317</v>
+        <v>1202.220686228319</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639506</v>
+        <v>1378.176233639508</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906547</v>
+        <v>1445.878660906549</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906547</v>
+        <v>1401.100270703773</v>
       </c>
       <c r="S6" t="n">
-        <v>1380.239400762</v>
+        <v>1258.309378699369</v>
       </c>
       <c r="T6" t="n">
-        <v>1380.239400762</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="U6" t="n">
-        <v>1380.239400762</v>
+        <v>1062.768760419123</v>
       </c>
       <c r="V6" t="n">
-        <v>1145.087292530258</v>
+        <v>827.6166521873806</v>
       </c>
       <c r="W6" t="n">
-        <v>890.8499358020561</v>
+        <v>573.379295459179</v>
       </c>
       <c r="X6" t="n">
-        <v>682.9984355965232</v>
+        <v>365.5277952536462</v>
       </c>
       <c r="Y6" t="n">
-        <v>682.9984355965232</v>
+        <v>362.0108483422812</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="K7" t="n">
-        <v>64.2406666257467</v>
+        <v>64.24066662574685</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584111</v>
+        <v>132.1299861584114</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347966</v>
+        <v>206.968037834797</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195359</v>
+        <v>287.8841338195365</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934707</v>
+        <v>342.3101561934715</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857993</v>
+        <v>369.8190495858002</v>
       </c>
       <c r="T7" t="n">
-        <v>323.9752263537183</v>
+        <v>145.4773021217086</v>
       </c>
       <c r="U7" t="n">
-        <v>323.9752263537183</v>
+        <v>145.4773021217086</v>
       </c>
       <c r="V7" t="n">
-        <v>323.9752263537183</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="W7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675762</v>
+        <v>34.55805631675766</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1425.551839658727</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="C8" t="n">
-        <v>1056.589322718315</v>
+        <v>1289.352831745533</v>
       </c>
       <c r="D8" t="n">
-        <v>698.3236241115649</v>
+        <v>931.087133138783</v>
       </c>
       <c r="E8" t="n">
-        <v>312.5353715133206</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>305.5898707641172</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
         <v>43.36919653809306</v>
@@ -4808,13 +4808,13 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711874</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M8" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
         <v>1761.960612545596</v>
@@ -4829,25 +4829,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T8" t="n">
-        <v>2168.459826904653</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="U8" t="n">
-        <v>2168.459826904653</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="V8" t="n">
-        <v>2168.459826904653</v>
+        <v>2032.260818991459</v>
       </c>
       <c r="W8" t="n">
-        <v>1815.691171634539</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="X8" t="n">
-        <v>1815.691171634539</v>
+        <v>1679.492163721345</v>
       </c>
       <c r="Y8" t="n">
-        <v>1425.551839658727</v>
+        <v>1289.352831745533</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>672.5286484590418</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="C9" t="n">
-        <v>498.0756191779149</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="D9" t="n">
-        <v>349.1412095166636</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="E9" t="n">
-        <v>189.9037545112081</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="F9" t="n">
-        <v>43.36919653809306</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>99.24512613112324</v>
       </c>
       <c r="H9" t="n">
         <v>43.36919653809306</v>
@@ -4905,28 +4905,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1766.227047333487</v>
+        <v>1595.273638474382</v>
       </c>
       <c r="T9" t="n">
-        <v>1766.227047333487</v>
+        <v>1400.563316948358</v>
       </c>
       <c r="U9" t="n">
-        <v>1745.745249409541</v>
+        <v>1172.461727081622</v>
       </c>
       <c r="V9" t="n">
-        <v>1510.593141177798</v>
+        <v>937.3096188498796</v>
       </c>
       <c r="W9" t="n">
-        <v>1256.355784449597</v>
+        <v>683.072262121678</v>
       </c>
       <c r="X9" t="n">
-        <v>1048.504284244064</v>
+        <v>475.2207619161452</v>
       </c>
       <c r="Y9" t="n">
-        <v>840.7439854791098</v>
+        <v>267.4604631511913</v>
       </c>
     </row>
     <row r="10">
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D10" t="n">
-        <v>370.1727076282633</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E10" t="n">
-        <v>222.2596140458702</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F10" t="n">
-        <v>75.36966654795984</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
         <v>43.36919653809306</v>
@@ -4990,22 +4990,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T10" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="U10" t="n">
-        <v>520.2893470405991</v>
+        <v>296.6854897332227</v>
       </c>
       <c r="V10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="W10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="11">
@@ -5030,22 +5030,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
         <v>2206.558663014778</v>
@@ -5057,7 +5057,7 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5066,22 +5066,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797186</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M12" t="n">
-        <v>691.1951506745235</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N12" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O12" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
         <v>2283.159972732779</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>695.5020655703114</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>545.3854261579756</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>397.4723325755825</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5270,25 +5270,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5303,10 +5303,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>113.9333885650331</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1746.193029533436</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5489,43 +5489,43 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5534,31 +5534,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,31 +5586,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>803.8641191832229</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C19" t="n">
-        <v>634.927936255316</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D19" t="n">
-        <v>484.8112968429803</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5689,34 +5689,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487566</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510507</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854705</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1502.919304948441</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1213.50213491148</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>985.5125840134626</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>545.3854261579752</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908938</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>451.6888124356582</v>
       </c>
       <c r="F25" t="n">
         <v>402.7245934908938</v>
@@ -6139,58 +6139,58 @@
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6221,22 +6221,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>526.5658826424041</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
@@ -6461,19 +6461,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6540,28 +6540,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>506.2737913123336</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1103.652278938886</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>741.8431516380867</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7243904253734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G31" t="n">
         <v>317.6151975578602</v>
@@ -6640,31 +6640,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510506</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854704</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648817</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611857</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1144.284195611857</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>923.4916164683265</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6686,40 +6686,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>691.1951506745238</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>1318.79311422913</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O33" t="n">
-        <v>1870.702844468417</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P33" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6877,31 +6877,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580257</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487564</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510505</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854703</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648816</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611855</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138379</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="35">
@@ -6929,25 +6929,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7017,19 +7017,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7072,16 +7072,16 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
         <v>1948.813509611463</v>
@@ -7169,22 +7169,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7193,31 +7193,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7375,7 +7375,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="41">
@@ -7400,25 +7400,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
         <v>2950.898526355937</v>
@@ -7436,22 +7436,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>172.349019141113</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K42" t="n">
-        <v>506.2737913123336</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L42" t="n">
         <v>506.2737913123336</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7609,10 +7609,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>990.6907003535711</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="44">
@@ -7643,22 +7643,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>802.9288273958721</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C46" t="n">
-        <v>633.9926444679652</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D46" t="n">
-        <v>633.9926444679652</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6145409888043</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1433.359422267659</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X46" t="n">
-        <v>1205.369871369642</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y46" t="n">
-        <v>984.5772922261118</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
   </sheetData>
@@ -23315,7 +23315,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>66.36248435538609</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23656,19 +23656,19 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>85.96822242533193</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>68.5257599066266</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194177</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>86.46557462472413</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>96.94647126761453</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,25 +24598,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>107.2784330767828</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>126.0028419604376</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>59.21924749804161</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25081,13 +25081,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>203.6630665685146</v>
       </c>
     </row>
     <row r="35">
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>37.12601365260466</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25321,10 +25321,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25552,10 +25552,10 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>211.9838267404999</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,10 +25849,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>73.65209508333268</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>62.89964020219986</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26077,13 +26077,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821175.3108852895</v>
+        <v>821175.3108852896</v>
       </c>
     </row>
     <row r="12">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982123</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
-        <v>605359.9497675042</v>
+        <v>605359.9497675044</v>
       </c>
       <c r="F2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="G2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="H2" t="n">
+        <v>605359.9497675046</v>
+      </c>
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="K2" t="n">
+        <v>605359.9497675045</v>
+      </c>
+      <c r="L2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="N2" t="n">
         <v>605359.9497675044</v>
       </c>
-      <c r="J2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="K2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="L2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="O2" t="n">
         <v>605359.9497675045</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>605359.9497675042</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605359.9497675044</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675046</v>
       </c>
     </row>
     <row r="3">
@@ -26363,40 +26363,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208451</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253117</v>
+        <v>270592.3620253121</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231939</v>
+        <v>115410.0540231932</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742648</v>
+        <v>601443.2075742653</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285443</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881956</v>
+        <v>62913.63765881963</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197506</v>
+        <v>27875.25362197488</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.3805515981</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.56483413</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263465</v>
+        <v>206604.4229263463</v>
       </c>
       <c r="D4" t="n">
         <v>174202.9900888977</v>
@@ -26427,16 +26427,16 @@
         <v>14826.69604186736</v>
       </c>
       <c r="F4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186734</v>
       </c>
       <c r="G4" t="n">
         <v>14826.69604186736</v>
       </c>
       <c r="H4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186742</v>
       </c>
       <c r="I4" t="n">
-        <v>14826.69604186734</v>
+        <v>14826.69604186743</v>
       </c>
       <c r="J4" t="n">
         <v>14826.69604186736</v>
@@ -26448,13 +26448,13 @@
         <v>14826.69604186736</v>
       </c>
       <c r="M4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186737</v>
       </c>
       <c r="N4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.6960418674</v>
       </c>
       <c r="O4" t="n">
-        <v>14826.69604186736</v>
+        <v>14826.69604186744</v>
       </c>
       <c r="P4" t="n">
         <v>14826.69604186736</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161355</v>
+        <v>56985.80041161357</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936811</v>
+        <v>76435.73471936815</v>
       </c>
       <c r="D5" t="n">
         <v>85199.08185587224</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683761</v>
+        <v>-311097.9403683764</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718595</v>
+        <v>62148.80772718608</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302484</v>
+        <v>240969.201430249</v>
       </c>
       <c r="E6" t="n">
-        <v>-112032.4836725351</v>
+        <v>-112067.2215979711</v>
       </c>
       <c r="F6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.985976294</v>
       </c>
       <c r="G6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.9859762941</v>
       </c>
       <c r="H6" t="n">
-        <v>489410.7239017295</v>
+        <v>489375.9859762944</v>
       </c>
       <c r="I6" t="n">
-        <v>489410.7239017299</v>
+        <v>489375.985976294</v>
       </c>
       <c r="J6" t="n">
-        <v>440345.7791731855</v>
+        <v>440311.0412477496</v>
       </c>
       <c r="K6" t="n">
-        <v>426497.0862429103</v>
+        <v>426462.3483174746</v>
       </c>
       <c r="L6" t="n">
-        <v>461535.4702797548</v>
+        <v>461500.7323543191</v>
       </c>
       <c r="M6" t="n">
-        <v>332264.3433501321</v>
+        <v>332229.605424696</v>
       </c>
       <c r="N6" t="n">
-        <v>489410.7239017297</v>
+        <v>489375.9859762942</v>
       </c>
       <c r="O6" t="n">
-        <v>489410.7239017299</v>
+        <v>489375.9859762942</v>
       </c>
       <c r="P6" t="n">
-        <v>489410.7239017301</v>
+        <v>489375.985976294</v>
       </c>
     </row>
   </sheetData>
@@ -26719,10 +26719,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950608</v>
+        <v>758.8996292950613</v>
       </c>
       <c r="D3" t="n">
         <v>853.7106645376841</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594703</v>
+        <v>431.9757039594707</v>
       </c>
       <c r="D4" t="n">
         <v>542.1149567261632</v>
@@ -26808,7 +26808,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26957,25 +26957,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129042</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821565</v>
+        <v>210.4296883821568</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262335</v>
+        <v>94.81103524262278</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039894</v>
+        <v>514.2648358039899</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666929</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663194</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666928</v>
+        <v>110.1392527666922</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734854</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663197</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931505</v>
+        <v>244.4501167931508</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666929</v>
+        <v>110.1392527666925</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734849</v>
+        <v>630.5933313734852</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>219.3504585753917</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>344.6468391976719</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>316.8938261062223</v>
+        <v>129.3682389399024</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>28.60460395604667</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.0817190166639</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>25.91829388988706</v>
+        <v>25.91829388988688</v>
       </c>
       <c r="U2" t="n">
         <v>251.1692605650303</v>
@@ -27461,13 +27461,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27476,10 +27476,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409152</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265846</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27503,22 +27503,22 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846324</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.4095977920013</v>
+        <v>7.884010625681356</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8637684100909</v>
+        <v>38.33818124377103</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>140.638226549157</v>
+        <v>215.3002871593222</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>96.39952676377833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27558,10 +27558,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825422</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402859</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27576,13 +27576,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709393</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.6860405515973</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R4" t="n">
-        <v>132.8223696106904</v>
+        <v>80.60642335625595</v>
       </c>
       <c r="S4" t="n">
         <v>206.7802557954962</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>264.9916520819686</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>92.85788772760046</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>100.9019783829164</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
@@ -27673,7 +27673,7 @@
         <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27695,7 +27695,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -27704,7 +27704,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
@@ -27713,7 +27713,7 @@
         <v>96.47037835246132</v>
       </c>
       <c r="I6" t="n">
-        <v>43.3208508493752</v>
+        <v>43.32085084937516</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074806</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>76.38011554125953</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27761,7 +27761,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>202.200918335053</v>
       </c>
     </row>
     <row r="7">
@@ -27795,7 +27795,7 @@
         <v>114.295721259913</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304059</v>
+        <v>30.24193919304052</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,25 +27816,25 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589167</v>
+        <v>36.91115760589159</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166225</v>
+        <v>115.7603165166224</v>
       </c>
       <c r="S7" t="n">
         <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
-        <v>176.7129449896904</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>142.3275899769266</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,7 +27853,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>152.2722673598629</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>204.0485487447926</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27932,22 +27932,22 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>39.18364296475526</v>
       </c>
       <c r="I9" t="n">
         <v>36.29946757904885</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>205.5435940233622</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28014,16 +28014,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>134.7710358011637</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H10" t="n">
         <v>148.5398113612452</v>
@@ -28062,13 +28062,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>1.354513060649737</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-3.410605131648481e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28731,7 +28731,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-3.430228579335942e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -28761,7 +28761,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>-3.667647334570338e-14</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -28813,7 +28813,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -29512,7 +29512,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -29797,7 +29797,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -29949,7 +29949,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-3.016490760880212e-12</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30466,16 +30466,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>6.436047097567693e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30526,7 +30526,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>1.607718096583367e-12</v>
       </c>
     </row>
     <row r="42">
@@ -30697,7 +30697,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954483</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043114</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655542</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528637</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.950432967289</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470271</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470022</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622677</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244292</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151091</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974682</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619219</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924574</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U2" t="n">
-        <v>0.17639234280616</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31121,46 +31121,46 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590848</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340082</v>
+        <v>111.4584056340083</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621735</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405031</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975328</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829652</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292671</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P3" t="n">
-        <v>225.276266862887</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550071</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S3" t="n">
-        <v>21.91292641288819</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820366</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390157</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445813</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620011</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I4" t="n">
-        <v>29.7432551563916</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114189</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K4" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L4" t="n">
-        <v>147.0438920276989</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N4" t="n">
-        <v>151.3507297604413</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592432</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784854</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647907</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181392</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061359</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085669</v>
+        <v>3.050852781085672</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429362</v>
+        <v>31.24454604429364</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428055</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286701</v>
+        <v>258.9373162286702</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520265</v>
+        <v>388.0799144520268</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511771</v>
+        <v>481.4474502511775</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968094</v>
+        <v>535.7030533968098</v>
       </c>
       <c r="N5" t="n">
-        <v>544.371288861069</v>
+        <v>544.3712888610695</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191484</v>
+        <v>514.0343715191489</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860959</v>
+        <v>438.7164434860962</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634653</v>
+        <v>329.4577782634655</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098728</v>
+        <v>191.643131009873</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898976</v>
+        <v>69.52130774898981</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920252</v>
+        <v>13.35510804920253</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868535</v>
+        <v>0.2440682224868537</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030887</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403513</v>
+        <v>15.76506588403515</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062479</v>
+        <v>56.20152915062484</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475936</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316628</v>
+        <v>263.588751431663</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721886</v>
+        <v>354.4276051721888</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658081</v>
+        <v>413.6002979658084</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468661</v>
+        <v>424.5470671468665</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374449</v>
+        <v>388.3776244374452</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872487</v>
+        <v>311.7072835872489</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547497</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.348897663216</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947717</v>
+        <v>30.3201880194772</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378873</v>
+        <v>6.579516597378879</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757163</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236996</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377983</v>
+        <v>12.16727602377984</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734527</v>
+        <v>41.1547536673453</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635552</v>
+        <v>96.75348224635559</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260799</v>
+        <v>158.99569282608</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.459746516253</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399136</v>
+        <v>214.5197755399138</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528486</v>
+        <v>209.4189747528488</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275347</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514997</v>
+        <v>165.5147650514999</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235543</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054704</v>
+        <v>61.53307486054708</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391198</v>
+        <v>23.849353923912</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830794</v>
+        <v>5.847259438830799</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656344</v>
+        <v>0.07464586517656349</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,10 +31829,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31844,34 +31844,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>550.5977692975246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>175.6052721551106</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>512.9101366533182</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32099,7 +32099,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>303.4024373464761</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,31 +32540,31 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>560.1612034965808</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32573,16 +32573,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32789,37 +32789,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305192</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,19 +33020,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>171.5999003578897</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33260,13 +33260,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>555.1777416630679</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33436,7 +33436,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669223</v>
@@ -33494,13 +33494,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>691.6611968462892</v>
       </c>
       <c r="O33" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,22 +33737,22 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>126.8376266666667</v>
@@ -33977,10 +33977,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>162.5000833330459</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33995,7 +33995,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34129,7 +34129,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
         <v>699.5441750817575</v>
@@ -34208,13 +34208,13 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>206.1632388819608</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>217.8799919951683</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34445,16 +34445,16 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>150.7833302198383</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34469,7 +34469,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538867938</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788315</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973018</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197544</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504113</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O2" t="n">
-        <v>141.403355440581</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915967</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065958</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781455</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606289</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755144</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996319</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848227</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P3" t="n">
-        <v>91.3018594485568</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764987</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,16 +34860,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646066</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061144</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520815</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400438</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198377</v>
+        <v>77.89141170198394</v>
       </c>
       <c r="K5" t="n">
-        <v>167.990063407046</v>
+        <v>167.9900634070463</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811899</v>
+        <v>245.6810352811902</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695367</v>
+        <v>305.3568201695371</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644781</v>
+        <v>314.9582252644786</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974617</v>
+        <v>283.9361600974621</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308264</v>
+        <v>207.4834477308267</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890158</v>
+        <v>107.152088389016</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092677</v>
+        <v>27.38366498092688</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573038</v>
+        <v>125.747312457304</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923144</v>
+        <v>215.8732253923146</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437897</v>
+        <v>271.46626404379</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635328</v>
+        <v>293.2053550635331</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930005</v>
+        <v>245.7813799930008</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729185</v>
+        <v>177.7328761729187</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872804</v>
+        <v>68.38629016872818</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554452</v>
+        <v>29.98243465554464</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501458</v>
+        <v>68.57507023501472</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230856</v>
+        <v>75.5939915923087</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761542</v>
+        <v>81.73343028761559</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569177</v>
+        <v>54.97578017569191</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235211</v>
+        <v>27.78676100235225</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>416.6233618831943</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789208</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>37.76383318075158</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>370.3138922088737</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>165.5609983721171</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36057,7 +36057,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066236</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
         <v>120.4022572998984</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,22 +36197,22 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>418.0271695745625</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36221,7 +36221,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561602</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,19 +36668,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>29.46586643587134</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36908,13 +36908,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>416.6233618831937</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998968</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37084,7 +37084,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924728</v>
@@ -37142,13 +37142,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>560.3194847629559</v>
       </c>
       <c r="O33" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37245,7 +37245,7 @@
         <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998953</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,22 +37385,22 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -37625,10 +37625,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>23.94570355317167</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37643,7 +37643,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
         <v>479.454324036777</v>
@@ -37856,13 +37856,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>79.32561221529411</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>79.32561221529411</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -38093,16 +38093,16 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>23.94570355317166</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38117,7 +38117,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38187,7 +38187,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060439</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
